--- a/dist/document/dest/2020/10/doctors/ltc.xlsx
+++ b/dist/document/dest/2020/10/doctors/ltc.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>42300</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -416,7 +413,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>42300</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
